--- a/Roots/core/static/core/usuarios/usuarios.xlsx
+++ b/Roots/core/static/core/usuarios/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draco\Documents\Programacion\CEIP_Miguel_Cervantes_Roots\Roots\core\static\core\usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9E467-2353-4CCF-A6BC-7925CCC06DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC794F4-59CB-4ABD-AC36-501B48E7E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -303,9 +303,6 @@
     <t>apellidos profesor29</t>
   </si>
   <si>
-    <t>hola@1234</t>
-  </si>
-  <si>
     <t>test2@email.com</t>
   </si>
   <si>
@@ -415,6 +412,12 @@
   </si>
   <si>
     <t>direction@email.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$870000$UGYvJ97KEZVzNlVjONGkLv$MdTX4SBx9h1tZPvvK2NvWx4IPankFI21gmDeUi8KVMc=</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,8 +774,8 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="96.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,6 +791,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -802,8 +808,8 @@
       <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>92</v>
+      <c r="E2" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,9 +823,11 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -832,9 +840,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -847,9 +857,11 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -862,9 +874,11 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -877,9 +891,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -892,9 +908,11 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -907,9 +925,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -922,9 +942,11 @@
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -937,9 +959,11 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -952,9 +976,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -967,9 +993,11 @@
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -982,9 +1010,11 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -997,9 +1027,11 @@
         <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1012,9 +1044,11 @@
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1027,9 +1061,11 @@
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1042,9 +1078,11 @@
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1057,9 +1095,11 @@
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1072,9 +1112,11 @@
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1087,9 +1129,11 @@
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1102,9 +1146,11 @@
         <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1117,9 +1163,11 @@
         <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1132,9 +1180,11 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1147,9 +1197,11 @@
         <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1162,9 +1214,11 @@
         <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1177,9 +1231,11 @@
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1192,9 +1248,11 @@
         <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1207,9 +1265,11 @@
         <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1222,41 +1282,52 @@
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>129</v>
+      <c r="E33" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
